--- a/GreenBox编码规则.xlsx
+++ b/GreenBox编码规则.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GreenBox\Library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{168CD5E8-4E78-4254-9135-8EECFEB813C4}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{73926870-0753-4557-953C-C96A3BA4EB28}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="240" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="240" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="命名规则" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="958" uniqueCount="794">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="964" uniqueCount="800">
   <si>
     <t>X</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -81,22 +81,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1206</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1210</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2010</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1812</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Q</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1789,9 +1777,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SUNLORD</t>
-  </si>
-  <si>
     <t>U</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3151,6 +3136,46 @@
   </si>
   <si>
     <t>8</t>
+  </si>
+  <si>
+    <t>MPS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SUNLORD顺络</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I-IPX U.FL座子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RICHTEK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1210/B3528</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1206/A3216</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1812/C6032</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T-钽电容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AVX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMETECH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3492,10 +3517,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G111"/>
+  <dimension ref="A1:G113"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3527,7 +3552,7 @@
         <v>6</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -3543,567 +3568,577 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B5" s="3" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B11" s="3" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B12" s="3" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B13" s="3" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B14" s="3" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B15" s="3" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B16" s="3" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B17" s="3" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B18" s="3" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B19" s="3" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B20" s="3" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B21" s="3" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B24" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B25" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B26" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B27" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B28" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B31" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B32" s="3" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B33" s="3" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B34" s="3" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>114</v>
+        <v>678</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B35" s="3" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
+        <v>264</v>
+      </c>
       <c r="B37" s="3" t="s">
-        <v>445</v>
+        <v>109</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>446</v>
+        <v>110</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>447</v>
+        <v>111</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B38" s="3" t="s">
-        <v>547</v>
+        <v>442</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B39" s="3" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B40" s="3" t="s">
-        <v>591</v>
+        <v>550</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B41" s="3" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>334</v>
+        <v>587</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B42" s="3" t="s">
+        <v>614</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" s="3" t="s">
+        <v>330</v>
+      </c>
       <c r="B44" s="3" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B45" s="3" t="s">
-        <v>336</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>356</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B47" s="3" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A49" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B49" s="3" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B46" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B48" s="3" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G50" s="3" t="s">
         <v>75</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B50" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="G50" s="3" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B51" s="3" t="s">
-        <v>332</v>
+        <v>73</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B52" s="3" t="s">
-        <v>79</v>
+        <v>329</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B53" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B54" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>110</v>
+        <v>77</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B55" s="3" t="s">
-        <v>473</v>
+        <v>108</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B56" s="3" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B57" s="3" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B58" s="3" t="s">
-        <v>669</v>
+        <v>471</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B59" s="3" t="s">
-        <v>556</v>
+        <v>665</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B60" s="3" t="s">
-        <v>721</v>
+        <v>552</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B61" s="3" t="s">
-        <v>734</v>
+        <v>717</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B62" s="3" t="s">
-        <v>472</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>476</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>484</v>
+        <v>730</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B63" s="3" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B65" s="3" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+        <v>468</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B64" s="3" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B66" s="3" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B69" s="3" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B71" s="3" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A74" s="3" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B67" s="3" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B70" s="3" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B72" s="3" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B76" s="3" t="s">
         <v>464</v>
       </c>
-      <c r="B74" s="3" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B75" s="3" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B76" s="3" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B77" s="3" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B78" s="3" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A80" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="B80" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="E80" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="G80" s="3" t="s">
-        <v>318</v>
+        <v>461</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B79" s="3" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A81" s="3" t="s">
+        <v>301</v>
+      </c>
       <c r="B81" s="3" t="s">
-        <v>306</v>
+        <v>302</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B82" s="3" t="s">
-        <v>600</v>
+        <v>303</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B83" s="3" t="s">
-        <v>603</v>
+        <v>596</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B84" s="3" t="s">
-        <v>692</v>
+        <v>599</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B85" s="3" t="s">
-        <v>715</v>
+        <v>688</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B86" s="3" t="s">
-        <v>730</v>
+        <v>711</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B87" s="3" t="s">
-        <v>741</v>
+        <v>726</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B88" s="3" t="s">
-        <v>743</v>
+        <v>737</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B89" s="3" t="s">
-        <v>755</v>
+        <v>739</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B90" s="3" t="s">
-        <v>773</v>
+        <v>751</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B91" s="3" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A93" s="3" t="s">
-        <v>414</v>
-      </c>
-      <c r="B93" s="3" t="s">
-        <v>415</v>
-      </c>
-      <c r="G93" s="3" t="s">
-        <v>677</v>
+        <v>769</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B92" s="3" t="s">
+        <v>771</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A94" s="3" t="s">
+        <v>411</v>
+      </c>
       <c r="B94" s="3" t="s">
-        <v>452</v>
+        <v>412</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B95" s="3" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B96" s="3" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>681</v>
+        <v>671</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B97" s="3" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B98" s="3" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B99" s="3" t="s">
-        <v>534</v>
+        <v>452</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B100" s="3" t="s">
-        <v>671</v>
+        <v>530</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>675</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B101" s="3" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B102" s="3" t="s">
-        <v>693</v>
+        <v>668</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B103" s="3" t="s">
-        <v>705</v>
+        <v>689</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B104" s="3" t="s">
-        <v>750</v>
+        <v>701</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B105" s="3" t="s">
+        <v>746</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A106" s="3" t="s">
-        <v>538</v>
-      </c>
       <c r="B106" s="3" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B107" s="3" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A110" s="3" t="s">
-        <v>548</v>
-      </c>
-      <c r="B110" s="3" t="s">
-        <v>549</v>
-      </c>
-      <c r="E110" s="3" t="s">
-        <v>702</v>
-      </c>
-      <c r="G110" s="3" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B111" s="3" t="s">
-        <v>697</v>
+        <v>792</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A108" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B109" s="3" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A112" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="E112" s="3" t="s">
+        <v>698</v>
+      </c>
+      <c r="G112" s="3" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="113" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B113" s="3" t="s">
+        <v>693</v>
       </c>
     </row>
   </sheetData>
@@ -4117,8 +4152,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4130,263 +4165,263 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B1" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>359</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>403</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>404</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F8" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F9" s="3" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F10" s="3" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F11" s="3" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F12" s="3" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F13" s="3" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F14" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F15" s="3" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F16" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="17" spans="6:7" x14ac:dyDescent="0.2">
       <c r="F17" s="3" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="18" spans="6:7" x14ac:dyDescent="0.2">
       <c r="F18" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="19" spans="6:7" x14ac:dyDescent="0.2">
       <c r="F19" s="3" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="20" spans="6:7" x14ac:dyDescent="0.2">
       <c r="F20" s="3" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="21" spans="6:7" x14ac:dyDescent="0.2">
       <c r="F21" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="22" spans="6:7" x14ac:dyDescent="0.2">
       <c r="F22" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="23" spans="6:7" x14ac:dyDescent="0.2">
       <c r="F23" s="3" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="24" spans="6:7" x14ac:dyDescent="0.2">
       <c r="F24" s="3" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="25" spans="6:7" x14ac:dyDescent="0.2">
       <c r="F25" s="3" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
     </row>
     <row r="26" spans="6:7" x14ac:dyDescent="0.2">
       <c r="F26" s="3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="27" spans="6:7" x14ac:dyDescent="0.2">
       <c r="F27" s="3" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="28" spans="6:7" x14ac:dyDescent="0.2">
@@ -4394,23 +4429,23 @@
         <v>0</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
     <row r="29" spans="6:7" x14ac:dyDescent="0.2">
       <c r="F29" s="3" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="30" spans="6:7" x14ac:dyDescent="0.2">
       <c r="F30" s="3" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
     </row>
   </sheetData>
@@ -4432,31 +4467,31 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B2" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B3" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>319</v>
+      </c>
+      <c r="B4" t="s">
         <v>322</v>
-      </c>
-      <c r="B4" t="s">
-        <v>325</v>
       </c>
     </row>
   </sheetData>
@@ -4482,39 +4517,39 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B1" s="3" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="K2" s="3">
         <v>1</v>
@@ -4525,156 +4560,156 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D8" s="3" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D9" s="3" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D10" s="3" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D11" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D12" s="3" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D13" s="3" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
   </sheetData>
@@ -4689,7 +4724,7 @@
   <dimension ref="A1:P19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4699,524 +4734,524 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>164</v>
-      </c>
       <c r="F4" s="3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>165</v>
-      </c>
       <c r="F5" s="3" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>166</v>
-      </c>
       <c r="F6" s="3" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
     </row>
   </sheetData>
@@ -5230,8 +5265,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:N80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5249,7 +5284,7 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
@@ -5258,7 +5293,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
@@ -5267,10 +5302,10 @@
         <v>3</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
@@ -5281,72 +5316,72 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G2" s="1">
         <v>1</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G3" s="1">
         <v>2</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
@@ -5357,34 +5392,34 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G4" s="1">
         <v>3</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="L4" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="M4" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="N4" s="1" t="s">
         <v>517</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
@@ -5395,173 +5430,173 @@
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G5" s="1">
         <v>4</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>12</v>
+        <v>795</v>
       </c>
       <c r="B6" s="1">
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G6" s="1">
         <v>5</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>13</v>
+        <v>794</v>
       </c>
       <c r="B7" s="1">
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G7" s="1">
         <v>6</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G8" s="1">
         <v>7</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>15</v>
+        <v>796</v>
       </c>
       <c r="B9" s="1">
         <v>1</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G9" s="1">
         <v>8</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B10" s="1">
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G10" s="1">
         <v>9</v>
@@ -5569,332 +5604,332 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="G13" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="I13" s="1" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="E14" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="I17" s="3" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="J17" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="K17" s="1" t="s">
         <v>577</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>581</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="C18" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
     </row>
     <row r="19" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="E21" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="I25" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="J25" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="J25" s="1" t="s">
-        <v>577</v>
-      </c>
       <c r="K25" s="1" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
@@ -5902,483 +5937,483 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="I27" s="3"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>93</v>
-      </c>
       <c r="E29" s="1" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
     </row>
     <row r="31" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="F32" s="3" t="s">
+        <v>781</v>
+      </c>
+      <c r="G32" s="3" t="s">
         <v>785</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>789</v>
-      </c>
       <c r="I32" s="1" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="E33" s="3" t="s">
+        <v>777</v>
+      </c>
+      <c r="F33" s="3" t="s">
         <v>781</v>
       </c>
-      <c r="F33" s="3" t="s">
-        <v>785</v>
-      </c>
       <c r="G33" s="3" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="J33" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="K33" s="1" t="s">
         <v>650</v>
-      </c>
-      <c r="K33" s="1" t="s">
-        <v>654</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="I40" s="1" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="E41" s="1" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="F42" s="1" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G43" s="1" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G44" s="1" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="I46" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="J46" s="3" t="s">
         <v>646</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>650</v>
-      </c>
       <c r="K46" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="I49" s="1" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="E50" s="1" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.2">
@@ -6391,154 +6426,154 @@
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="I53" s="3" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="I54" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="J54" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="J54" s="1" t="s">
-        <v>312</v>
-      </c>
       <c r="K54" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="J55" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="K55" s="1" t="s">
         <v>312</v>
-      </c>
-      <c r="K55" s="1" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="B58" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="C58" s="1" t="s">
         <v>653</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>657</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="61" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="J62" s="3" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="K62" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="L62" s="3"/>
       <c r="M62" s="3"/>
@@ -6546,251 +6581,251 @@
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="K65" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="I66" s="1" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="K67" s="1" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="K68" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="N68" s="1" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="I69" s="1" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="K69" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="M69" s="1" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="N69" s="1" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="K70" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="M70" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="N70" s="1" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="M71" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="N71" s="1" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="M72" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="N72" s="1" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="M73" s="1" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="N73" s="1" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="M74" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="N74" s="1" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="M75" s="1" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="N75" s="1" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="M76" s="1" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="N76" s="1" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="M77" s="1" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="N77" s="1" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="M78" s="1" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="N78" s="1" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="M79" s="1" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="N79" s="1" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="M80" s="1" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="N80" s="1" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
     </row>
   </sheetData>
@@ -6804,8 +6839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6817,30 +6852,30 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C2" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="D2" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -6849,10 +6884,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -6861,32 +6896,41 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>711</v>
+        <v>707</v>
+      </c>
+      <c r="C7" t="s">
+        <v>799</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="C8" t="s">
-        <v>767</v>
+        <v>763</v>
+      </c>
+      <c r="D8" t="s">
+        <v>793</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="C9" t="s">
-        <v>745</v>
+        <v>741</v>
+      </c>
+      <c r="D9" t="s">
+        <v>790</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -6895,10 +6939,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>450</v>
+        <v>791</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -6907,32 +6951,35 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="C13" t="s">
-        <v>754</v>
+        <v>750</v>
+      </c>
+      <c r="D13" t="s">
+        <v>798</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="C15" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -6941,196 +6988,196 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="C18" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="B19" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="C20" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="C23" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="B26" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="C27" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="C29" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="B33" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B34" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="C34" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="B35" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="B37" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="B38" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="B40" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="B41" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="B42" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="B43" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="B44" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B45" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
@@ -7138,10 +7185,10 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="B47" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
     </row>
   </sheetData>
